--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="252">
   <si>
     <t>date</t>
   </si>
@@ -434,9 +434,6 @@
     <t>1811-02-02</t>
   </si>
   <si>
-    <t>éventuellement début de paragraphe sur Mlle Contat dans Femmes savantes</t>
-  </si>
-  <si>
     <t>1811-02-07</t>
   </si>
   <si>
@@ -545,9 +542,6 @@
     <t>1812-02-11</t>
   </si>
   <si>
-    <t>éventuellement Monsieur et Madame Toucoeur</t>
-  </si>
-  <si>
     <t>1812-02-15</t>
   </si>
   <si>
@@ -663,6 +657,132 @@
   </si>
   <si>
     <t>seulement paragraphe sur Festin de Pierre p. 3, Le jour d'auparavant…</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419352x</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419348v</t>
+  </si>
+  <si>
+    <t>seulement Malade imaginaire et Pourceaugnac</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4193798</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419495r</t>
+  </si>
+  <si>
+    <t>seulement début de paragraphe sur Mlle Contat dans Femmes savantes</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419706z</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419711d</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419720c</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419732g</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4197559</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4197873</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419792j</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4198293</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419938c</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420048p</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4200500</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420057n</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420059d</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420064v</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420068c</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4200712</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420078q</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420082s</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420089f</t>
+  </si>
+  <si>
+    <t>seulement Monsieur et Madame Toucoeur</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420103q</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420110x</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4201522</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420171c</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4201734</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4201781</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420180b</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420192f</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420197b</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4201993</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420208x</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4202154</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420535r</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420710s</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4207204</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420754p</t>
   </si>
 </sst>
 </file>
@@ -787,28 +907,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1174,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -1189,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1200,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -1209,10 +1315,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1220,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>65</v>
@@ -1229,10 +1335,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1240,7 +1346,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>65</v>
@@ -1249,10 +1355,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1260,7 +1366,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>65</v>
@@ -1269,10 +1375,10 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1280,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>65</v>
@@ -1289,10 +1395,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1300,7 +1406,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -1309,10 +1415,10 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -1329,10 +1435,10 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1340,7 +1446,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>65</v>
@@ -1349,10 +1455,10 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>21</v>
@@ -1369,10 +1475,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
@@ -1389,10 +1495,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1400,7 +1506,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>65</v>
@@ -1409,10 +1515,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1420,7 +1526,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>65</v>
@@ -1429,10 +1535,10 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1440,7 +1546,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>21</v>
@@ -1449,10 +1555,10 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1460,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>65</v>
@@ -1469,10 +1575,10 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1480,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>21</v>
@@ -1489,10 +1595,10 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1500,7 +1606,7 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>65</v>
@@ -1509,10 +1615,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1520,7 +1626,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>65</v>
@@ -1529,10 +1635,10 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1540,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>21</v>
@@ -1549,10 +1655,10 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1560,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
@@ -1569,10 +1675,10 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1580,7 +1686,7 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>65</v>
@@ -1589,10 +1695,10 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -1600,7 +1706,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>65</v>
@@ -1609,10 +1715,10 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1620,7 +1726,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
@@ -1635,10 +1741,10 @@
         <v>81</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1646,7 +1752,7 @@
         <v>82</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
@@ -1661,10 +1767,10 @@
         <v>83</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1672,7 +1778,7 @@
         <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
@@ -1687,10 +1793,10 @@
         <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1698,7 +1804,7 @@
         <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
@@ -1713,10 +1819,10 @@
         <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1724,7 +1830,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>6</v>
@@ -1739,10 +1845,10 @@
         <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1750,7 +1856,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>6</v>
@@ -1765,10 +1871,10 @@
         <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1776,7 +1882,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>6</v>
@@ -1791,10 +1897,10 @@
         <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1802,7 +1908,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1817,10 +1923,10 @@
         <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1828,7 +1934,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -1843,10 +1949,10 @@
         <v>103</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1854,7 +1960,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
@@ -1869,10 +1975,10 @@
         <v>104</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1986,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>21</v>
@@ -1890,7 +1996,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1048555" spans="2:2" x14ac:dyDescent="0.3">
@@ -1965,7 +2071,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E10" sqref="E10:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -1993,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2004,7 +2110,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -2013,10 +2119,10 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2024,7 +2130,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>21</v>
@@ -2033,10 +2139,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2044,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
@@ -2053,10 +2159,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2064,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
@@ -2073,10 +2179,10 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2084,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
@@ -2093,10 +2199,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2104,7 +2210,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -2113,10 +2219,10 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2124,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
@@ -2133,10 +2239,10 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2144,7 +2250,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>21</v>
@@ -2153,10 +2259,10 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2164,7 +2270,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -2172,15 +2278,17 @@
       <c r="D10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2188,7 +2296,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>21</v>
@@ -2197,10 +2305,10 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2208,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
@@ -2217,10 +2325,10 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2336,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>21</v>
@@ -2237,10 +2345,10 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2248,7 +2356,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
@@ -2256,15 +2364,17 @@
       <c r="D14" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2272,7 +2382,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -2280,15 +2390,17 @@
       <c r="D15" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2296,7 +2408,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -2304,15 +2416,17 @@
       <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2320,7 +2434,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>21</v>
@@ -2329,10 +2443,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2340,7 +2454,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>21</v>
@@ -2349,10 +2463,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2360,7 +2474,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>21</v>
@@ -2369,10 +2483,10 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2380,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>21</v>
@@ -2391,18 +2505,18 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -2410,15 +2524,17 @@
       <c r="D21" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>199</v>
+      <c r="G21" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2426,7 +2542,7 @@
         <v>118</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -2439,18 +2555,18 @@
         <v>131</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -2458,15 +2574,17 @@
       <c r="D23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>199</v>
+      <c r="G23" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2474,7 +2592,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
@@ -2485,10 +2603,10 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2496,7 +2614,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>21</v>
@@ -2505,10 +2623,10 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2516,7 +2634,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>21</v>
@@ -2527,10 +2645,10 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2538,7 +2656,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>21</v>
@@ -2549,10 +2667,10 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2560,7 +2678,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>21</v>
@@ -2571,10 +2689,10 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2582,23 +2700,25 @@
         <v>122</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="F29" s="15" t="s">
         <v>133</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2726,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>21</v>
@@ -2617,10 +2737,10 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2720,6 +2840,7 @@
     <hyperlink ref="F29" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2728,7 +2849,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -2753,46 +2874,62 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,17 +2937,25 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,20 +2963,37 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2842,7 +3004,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2855,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -2870,10 +3032,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2881,31 +3043,33 @@
         <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -2916,36 +3080,40 @@
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2953,167 +3121,175 @@
         <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3121,13 +3297,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
@@ -3136,34 +3312,36 @@
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3171,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -3186,10 +3364,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3197,7 +3375,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -3212,10 +3390,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3223,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -3238,10 +3416,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3249,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
@@ -3264,10 +3442,10 @@
         <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3275,24 +3453,32 @@
         <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -3303,7 +3489,7 @@
   </sheetData>
   <autoFilter ref="A1:H19">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <filter val="oui"/>
       </filters>
     </filterColumn>
@@ -3322,9 +3508,18 @@
     <hyperlink ref="F14" r:id="rId3"/>
     <hyperlink ref="F17" r:id="rId4"/>
     <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="F13" r:id="rId13"/>
+    <hyperlink ref="F18" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3333,15 +3528,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.5546875" style="19"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3349,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>95</v>
@@ -3360,22 +3557,22 @@
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -3386,108 +3583,118 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="18" t="s">
+        <v>225</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="18" t="s">
+        <v>227</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="18" t="s">
+        <v>228</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="G6" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3495,143 +3702,153 @@
         <v>72</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="18" t="s">
+        <v>230</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="G9" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3639,7 +3856,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -3650,120 +3867,124 @@
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>206</v>
+      <c r="F15" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>203</v>
-      </c>
       <c r="C16" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -3774,46 +3995,48 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="18" t="s">
+        <v>238</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>210</v>
+      <c r="F19" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -3824,44 +4047,48 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="18" t="s">
+        <v>239</v>
+      </c>
       <c r="G20" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="18" t="s">
+        <v>240</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -3872,20 +4099,22 @@
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="18" t="s">
+        <v>241</v>
+      </c>
       <c r="G22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -3896,20 +4125,22 @@
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -3920,108 +4151,118 @@
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="18" t="s">
+        <v>243</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="18" t="s">
+        <v>244</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="18" t="s">
+        <v>247</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4029,10 +4270,10 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
@@ -4040,7 +4281,6 @@
   <autoFilter ref="A1:H29">
     <filterColumn colId="1">
       <filters blank="1">
-        <filter val="?"/>
         <filter val="oui"/>
       </filters>
     </filterColumn>
@@ -4052,9 +4292,31 @@
     <hyperlink ref="F15" r:id="rId1"/>
     <hyperlink ref="F17" r:id="rId2"/>
     <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="F7" r:id="rId9"/>
+    <hyperlink ref="F8" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="F11" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F20" r:id="rId17"/>
+    <hyperlink ref="F21" r:id="rId18"/>
+    <hyperlink ref="F22" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId20"/>
+    <hyperlink ref="F24" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22"/>
+    <hyperlink ref="F26" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+    <hyperlink ref="F28" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4062,13 +4324,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4076,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -4091,10 +4353,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4102,17 +4364,25 @@
         <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4120,17 +4390,25 @@
         <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4138,17 +4416,25 @@
         <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="G4" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4156,23 +4442,37 @@
         <v>74</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A2:A5"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4192,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
@@ -4207,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,7 +4522,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4234,7 +4534,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4246,7 +4546,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4258,7 +4558,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4584,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>106</v>
@@ -4300,7 +4600,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>106</v>
@@ -4308,7 +4608,7 @@
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
@@ -4316,7 +4616,7 @@
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -4324,7 +4624,7 @@
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elodiebenard\ownCloud\moliere\jdd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -22,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1811'!$A$1:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1812'!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="346">
   <si>
     <t>date</t>
   </si>
@@ -783,6 +788,288 @@
   </si>
   <si>
     <t>http://gallica.bnf.fr/ark:/12148/bpt6k420754p</t>
+  </si>
+  <si>
+    <t>1810-01-10</t>
+  </si>
+  <si>
+    <t>seulement les 2 derniers § p.2</t>
+  </si>
+  <si>
+    <t>Non signé</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419321h</t>
+  </si>
+  <si>
+    <t>1810-01-20</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419331v</t>
+  </si>
+  <si>
+    <t>seulement L'Avare</t>
+  </si>
+  <si>
+    <t>seulement George Dandin</t>
+  </si>
+  <si>
+    <t>1810-02-28</t>
+  </si>
+  <si>
+    <t>seulement p.1-3 (exclure 3 derniers § p.3-4)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419370v</t>
+  </si>
+  <si>
+    <t>1810-03-06</t>
+  </si>
+  <si>
+    <t>seulement Malade imaginaire</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419377h</t>
+  </si>
+  <si>
+    <t>1810-03-22</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419393p</t>
+  </si>
+  <si>
+    <t>1810-05-22</t>
+  </si>
+  <si>
+    <t>seulement Tartuffe (7 premières lignes sur Dorine)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4194527</t>
+  </si>
+  <si>
+    <t>1810-05-29</t>
+  </si>
+  <si>
+    <t>seulement Festin de Pierre p. 1 (sauf dernier §)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419459w</t>
+  </si>
+  <si>
+    <t>1810-05-31</t>
+  </si>
+  <si>
+    <t>seulement sur Tartuffe §1 p.1</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4194616</t>
+  </si>
+  <si>
+    <t>1810-06-02</t>
+  </si>
+  <si>
+    <t>seulement Misanthrope (sauf dernier § p.2)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419463z</t>
+  </si>
+  <si>
+    <t>1810-06-09</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>seulement sur comédie Molière et ses amis §3 p.1</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4194705</t>
+  </si>
+  <si>
+    <t>1810-06-19</t>
+  </si>
+  <si>
+    <t>seulement sur Femmes savantes 2 derniers § p.2</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419479k</t>
+  </si>
+  <si>
+    <t>1810-06-26</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419486s</t>
+  </si>
+  <si>
+    <t>1810-06-28</t>
+  </si>
+  <si>
+    <t>seulement sur Dandin §4 p.1-2</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419488j</t>
+  </si>
+  <si>
+    <t>1810-06-30</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419490v</t>
+  </si>
+  <si>
+    <t>1810-07-10</t>
+  </si>
+  <si>
+    <t>seulement Ecole des femmes p.3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4195002</t>
+  </si>
+  <si>
+    <t>1810-07-12</t>
+  </si>
+  <si>
+    <t>slt 2§ (p.3 Le jeu de Mlle Dumerson m'a paru.. Et p.4 Grandmesnil est l'âme du Malade…)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419502t</t>
+  </si>
+  <si>
+    <t>1810-07-14</t>
+  </si>
+  <si>
+    <t>slt Femmes savantes</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419504k</t>
+  </si>
+  <si>
+    <t>1810-07-19</t>
+  </si>
+  <si>
+    <t>slt Ecole des femmes</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419509g</t>
+  </si>
+  <si>
+    <t>1810-08-08</t>
+  </si>
+  <si>
+    <t>slt Femmes savantes §1 p. 3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4195295</t>
+  </si>
+  <si>
+    <t>1810-08-25</t>
+  </si>
+  <si>
+    <t>slt Ecole des maris p.3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419546q</t>
+  </si>
+  <si>
+    <t>1810-09-06</t>
+  </si>
+  <si>
+    <t>en entier (sauf dernières lignes sur Jeu de l'amour et du hasard Mlle Mars s'était réservée le rôle…)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419558t</t>
+  </si>
+  <si>
+    <t>1810-09-09</t>
+  </si>
+  <si>
+    <t>en entier (sauf dernier § p.3 sur l'autre pièce)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419561h</t>
+  </si>
+  <si>
+    <t>1810-09-20</t>
+  </si>
+  <si>
+    <t>slt §1 sur Femmes savantes</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4195727</t>
+  </si>
+  <si>
+    <t>1810-10-13</t>
+  </si>
+  <si>
+    <t>slt §1 et 1re ligne du §2 sur type de la coquette</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4195952</t>
+  </si>
+  <si>
+    <t>1810-10-23</t>
+  </si>
+  <si>
+    <t>en entier (sauf 2 derniers §)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196058</t>
+  </si>
+  <si>
+    <t>1810-10-25</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196071</t>
+  </si>
+  <si>
+    <t>1810-10-27</t>
+  </si>
+  <si>
+    <t>slt Femmes savantes p.1-3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419609s</t>
+  </si>
+  <si>
+    <t>1810-11-06</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196194</t>
+  </si>
+  <si>
+    <t>1810-11-11</t>
+  </si>
+  <si>
+    <t>slt sur Ecole des maris dernier § p.2-3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419630d</t>
+  </si>
+  <si>
+    <t>1810-12-20</t>
+  </si>
+  <si>
+    <t>slt sur Tartuffe 4 premiers §</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419663k</t>
+  </si>
+  <si>
+    <t>1810-12-25</t>
+  </si>
+  <si>
+    <t>slt Amphitryon §1</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419668g</t>
+  </si>
+  <si>
+    <t>1810-12-29</t>
+  </si>
+  <si>
+    <t>slt sur Amphitryon §2 et3</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196715</t>
   </si>
 </sst>
 </file>
@@ -971,6 +1258,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1018,7 +1308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,7 +1343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,13 +1559,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1591,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1611,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1631,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
@@ -1361,7 +1651,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
@@ -1381,7 +1671,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
@@ -1401,7 +1691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
@@ -1421,7 +1711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -1461,7 +1751,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1481,7 +1771,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1791,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -1521,7 +1811,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1561,7 +1851,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
@@ -1581,7 +1871,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1891,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
@@ -1621,7 +1911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1931,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1951,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1971,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -1701,7 +1991,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -1721,7 +2011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
@@ -1747,7 +2037,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -1773,7 +2063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -1799,7 +2089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>87</v>
       </c>
@@ -1825,7 +2115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
@@ -1851,7 +2141,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>93</v>
       </c>
@@ -1877,7 +2167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>97</v>
       </c>
@@ -1903,7 +2193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>99</v>
       </c>
@@ -1929,7 +2219,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>101</v>
       </c>
@@ -1955,7 +2245,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -1981,7 +2271,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -1999,37 +2289,37 @@
         <v>195</v>
       </c>
     </row>
-    <row r="1048555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048555" s="5"/>
     </row>
-    <row r="1048556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048556" s="5"/>
     </row>
-    <row r="1048557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048557" s="5"/>
     </row>
-    <row r="1048558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048558" s="5"/>
     </row>
-    <row r="1048559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048559" s="5"/>
     </row>
-    <row r="1048560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048560" s="5"/>
     </row>
-    <row r="1048561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048561" s="5"/>
     </row>
-    <row r="1048562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048562" s="5"/>
     </row>
-    <row r="1048563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048563" s="5"/>
     </row>
-    <row r="1048564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048564" s="5"/>
     </row>
-    <row r="1048565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048565" s="5"/>
     </row>
   </sheetData>
@@ -2074,12 +2364,12 @@
       <selection activeCell="E10" sqref="E10:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2395,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2415,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2145,7 +2435,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -2165,7 +2455,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2205,7 +2495,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2515,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2245,7 +2535,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -2265,7 +2555,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>107</v>
       </c>
@@ -2291,7 +2581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2311,7 +2601,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -2331,7 +2621,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +2641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>109</v>
       </c>
@@ -2377,7 +2667,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>110</v>
       </c>
@@ -2403,7 +2693,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>111</v>
       </c>
@@ -2429,7 +2719,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2739,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -2469,7 +2759,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -2489,7 +2779,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -2511,7 +2801,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>45</v>
       </c>
@@ -2537,7 +2827,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>118</v>
       </c>
@@ -2561,7 +2851,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>120</v>
       </c>
@@ -2587,7 +2877,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
@@ -2609,7 +2899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2919,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2651,7 +2941,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
@@ -2673,7 +2963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
@@ -2695,7 +2985,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>122</v>
       </c>
@@ -2721,7 +3011,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>52</v>
       </c>
@@ -2743,73 +3033,73 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="17"/>
     </row>
   </sheetData>
@@ -2846,15 +3136,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2880,76 +3170,72 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>200</v>
@@ -2958,9 +3244,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>193</v>
@@ -2969,13 +3255,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>200</v>
@@ -2983,16 +3269,788 @@
       <c r="H5" s="5" t="s">
         <v>197</v>
       </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:H5">
     <sortCondition ref="A2:A5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3007,12 +4065,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +4096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>134</v>
       </c>
@@ -3064,7 +4122,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>135</v>
       </c>
@@ -3090,7 +4148,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -3116,7 +4174,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -3142,7 +4200,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -3168,7 +4226,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>141</v>
       </c>
@@ -3192,7 +4250,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>144</v>
       </c>
@@ -3216,7 +4274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>146</v>
       </c>
@@ -3242,7 +4300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>148</v>
       </c>
@@ -3268,7 +4326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>150</v>
       </c>
@@ -3292,7 +4350,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +4376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>152</v>
       </c>
@@ -3344,7 +4402,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3370,7 +4428,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3396,7 +4454,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -3422,7 +4480,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3448,7 +4506,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +4532,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -3532,16 +4590,16 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="19"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="19"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3567,7 +4625,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
@@ -3593,7 +4651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
@@ -3619,7 +4677,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
@@ -3645,7 +4703,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>165</v>
       </c>
@@ -3671,7 +4729,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>167</v>
       </c>
@@ -3697,7 +4755,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -3723,7 +4781,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>168</v>
       </c>
@@ -3749,7 +4807,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>170</v>
       </c>
@@ -3775,7 +4833,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>171</v>
       </c>
@@ -3801,7 +4859,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>172</v>
       </c>
@@ -3827,7 +4885,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>173</v>
       </c>
@@ -3851,7 +4909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>73</v>
       </c>
@@ -3877,7 +4935,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>176</v>
       </c>
@@ -3903,7 +4961,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>177</v>
       </c>
@@ -3929,7 +4987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>178</v>
       </c>
@@ -3953,7 +5011,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>179</v>
       </c>
@@ -3979,7 +5037,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>180</v>
       </c>
@@ -4005,7 +5063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>181</v>
       </c>
@@ -4031,7 +5089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>182</v>
       </c>
@@ -4057,7 +5115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>183</v>
       </c>
@@ -4083,7 +5141,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>185</v>
       </c>
@@ -4109,7 +5167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>186</v>
       </c>
@@ -4135,7 +5193,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>187</v>
       </c>
@@ -4161,7 +5219,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>188</v>
       </c>
@@ -4187,7 +5245,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>189</v>
       </c>
@@ -4213,7 +5271,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>190</v>
       </c>
@@ -4239,7 +5297,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>191</v>
       </c>
@@ -4265,7 +5323,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4280,7 +5338,7 @@
   </sheetData>
   <autoFilter ref="A1:H29">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <filter val="oui"/>
       </filters>
     </filterColumn>
@@ -4324,16 +5382,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4359,7 +5417,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>76</v>
       </c>
@@ -4385,7 +5443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
@@ -4411,7 +5469,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -4437,7 +5495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4485,9 +5543,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4513,7 +5571,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4525,7 +5583,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4537,7 +5595,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4549,7 +5607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4574,15 +5632,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>155</v>
       </c>
@@ -4590,7 +5648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1810</v>
       </c>
@@ -4598,7 +5656,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
@@ -4606,7 +5664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
@@ -4614,7 +5672,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -4622,7 +5680,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>159</v>
       </c>
@@ -4630,7 +5688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -4638,7 +5696,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
@@ -4646,7 +5704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>116</v>
       </c>
@@ -4654,7 +5712,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>117</v>
       </c>
@@ -4662,7 +5720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1818</v>
       </c>
@@ -4670,7 +5728,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elodiebenard\ownCloud\moliere\jdd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -27,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1811'!$A$1:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1812'!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="347">
   <si>
     <t>date</t>
   </si>
@@ -94,9 +89,6 @@
     <t>1811-07-30</t>
   </si>
   <si>
-    <t>vu Tartuffe 1811</t>
-  </si>
-  <si>
     <t>donné-charlotte_2016-03</t>
   </si>
   <si>
@@ -352,9 +344,6 @@
     <t>1808-11-12</t>
   </si>
   <si>
-    <t>vu</t>
-  </si>
-  <si>
     <t>1809-02-27</t>
   </si>
   <si>
@@ -796,9 +785,6 @@
     <t>seulement les 2 derniers § p.2</t>
   </si>
   <si>
-    <t>Non signé</t>
-  </si>
-  <si>
     <t>http://gallica.bnf.fr/ark:/12148/bpt6k419321h</t>
   </si>
   <si>
@@ -877,9 +863,6 @@
     <t>1810-06-09</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>seulement sur comédie Molière et ses amis §3 p.1</t>
   </si>
   <si>
@@ -1070,6 +1053,21 @@
   </si>
   <si>
     <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196715</t>
+  </si>
+  <si>
+    <t>reprise non attribués</t>
+  </si>
+  <si>
+    <t>fait ET</t>
+  </si>
+  <si>
+    <t>fait EB</t>
+  </si>
+  <si>
+    <t>pb chargement charlotte</t>
+  </si>
+  <si>
+    <t>pb chargement camille</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,7 +1341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1555,25 +1553,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1048565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1585,464 +1583,464 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
@@ -2051,102 +2049,102 @@
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="B28" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>6</v>
@@ -2155,102 +2153,102 @@
         <v>15</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
@@ -2259,67 +2257,67 @@
         <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="1048555" spans="2:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1048555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048555" s="5"/>
     </row>
-    <row r="1048556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048556" s="5"/>
     </row>
-    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048557" s="5"/>
     </row>
-    <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048558" s="5"/>
     </row>
-    <row r="1048559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048559" s="5"/>
     </row>
-    <row r="1048560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048560" s="5"/>
     </row>
-    <row r="1048561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048561" s="5"/>
     </row>
-    <row r="1048562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048562" s="5"/>
     </row>
-    <row r="1048563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048563" s="5"/>
     </row>
-    <row r="1048564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048564" s="5"/>
     </row>
-    <row r="1048565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048565" s="5"/>
     </row>
   </sheetData>
@@ -2361,23 +2359,23 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E29"/>
+      <selection activeCell="H10" sqref="H10:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -2389,316 +2387,316 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="B16" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -2707,271 +2705,271 @@
         <v>5</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>5</v>
@@ -2979,47 +2977,47 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>5</v>
@@ -3027,79 +3025,79 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D53" s="17"/>
     </row>
   </sheetData>
@@ -3138,23 +3136,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3164,883 +3166,947 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H4" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="G21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="G23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="G24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="G25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="G26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="G27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>320</v>
+      <c r="F28" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>322</v>
+      <c r="D29" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>323</v>
+      <c r="F29" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>325</v>
+      <c r="D30" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>326</v>
+      <c r="F30" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>328</v>
+      <c r="F31" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>330</v>
+      <c r="D32" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>331</v>
+      <c r="F32" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>333</v>
+      <c r="F33" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>335</v>
+      <c r="D34" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>336</v>
+      <c r="F34" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>338</v>
+      <c r="D35" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>339</v>
+      <c r="F35" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>341</v>
+      <c r="D36" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>342</v>
+      <c r="F36" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>344</v>
+      <c r="D37" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>345</v>
+      <c r="F37" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:H5">
@@ -4051,6 +4117,38 @@
     <hyperlink ref="F5" r:id="rId2"/>
     <hyperlink ref="F8" r:id="rId3"/>
     <hyperlink ref="F19" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F13" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId14"/>
+    <hyperlink ref="F15" r:id="rId15"/>
+    <hyperlink ref="F16" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F31" r:id="rId29"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F33" r:id="rId31"/>
+    <hyperlink ref="F34" r:id="rId32"/>
+    <hyperlink ref="F35" r:id="rId33"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F37" r:id="rId35"/>
+    <hyperlink ref="F30" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4059,26 +4157,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -4090,278 +4188,278 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
@@ -4370,44 +4468,44 @@
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -4422,18 +4520,18 @@
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -4448,18 +4546,18 @@
         <v>17</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -4474,18 +4572,18 @@
         <v>7</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
@@ -4500,49 +4598,52 @@
         <v>16</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
+      <c r="I19" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H19">
@@ -4590,24 +4691,24 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="11.5703125" style="19"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.5546875" style="19"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -4619,430 +4720,430 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -5054,47 +5155,47 @@
         <v>13</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -5106,73 +5207,73 @@
         <v>13</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -5184,21 +5285,21 @@
         <v>13</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -5210,125 +5311,125 @@
         <v>13</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="11"/>
@@ -5386,20 +5487,20 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -5411,114 +5512,114 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5543,17 +5644,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -5565,13 +5666,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5580,10 +5681,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5592,10 +5693,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5604,10 +5705,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5616,7 +5717,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5626,111 +5727,106 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1810</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1818</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="365">
   <si>
     <t>date</t>
   </si>
@@ -1064,10 +1064,64 @@
     <t>fait EB</t>
   </si>
   <si>
-    <t>pb chargement charlotte</t>
-  </si>
-  <si>
-    <t>pb chargement camille</t>
+    <t>pb chargement charlotte (demande_2016-04-18)</t>
+  </si>
+  <si>
+    <t>pb chargement camille (demande_2016-04-18)</t>
+  </si>
+  <si>
+    <t>non attribué (demande_2016-04-18)</t>
+  </si>
+  <si>
+    <t>1813-01-02</t>
+  </si>
+  <si>
+    <t>1813-01-12</t>
+  </si>
+  <si>
+    <t>1813-01-22</t>
+  </si>
+  <si>
+    <t>1813-01-24</t>
+  </si>
+  <si>
+    <t>seulement premier paragraphe sur Critique de l'École des femmes</t>
+  </si>
+  <si>
+    <t>1813-01-30</t>
+  </si>
+  <si>
+    <t>1813-02-02</t>
+  </si>
+  <si>
+    <t>seulement deux derniers paragraphes sur École des maris</t>
+  </si>
+  <si>
+    <t>1813-02-20</t>
+  </si>
+  <si>
+    <t>1813-02-23</t>
+  </si>
+  <si>
+    <t>seulement Psyché</t>
+  </si>
+  <si>
+    <t>seulement Pourceaugnac</t>
+  </si>
+  <si>
+    <t>1813-02-25</t>
+  </si>
+  <si>
+    <t>1813-02-27</t>
+  </si>
+  <si>
+    <t>1813-03-02</t>
+  </si>
+  <si>
+    <t>1813-03-05</t>
+  </si>
+  <si>
+    <t>reprise au 6 mars</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1607,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1048565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2413,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H29"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3067,7 +3121,7 @@
     <row r="42" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D43" s="17"/>
     </row>
     <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3134,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,7 +3200,7 @@
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3226,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>250</v>
       </c>
@@ -3197,8 +3251,11 @@
       <c r="H2" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>253</v>
       </c>
@@ -3223,8 +3280,11 @@
       <c r="H3" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -3249,8 +3309,11 @@
       <c r="H4" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I4" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -3275,8 +3338,11 @@
       <c r="H5" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I5" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>257</v>
       </c>
@@ -3301,8 +3367,11 @@
       <c r="H6" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>260</v>
       </c>
@@ -3327,8 +3396,11 @@
       <c r="H7" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I7" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -3353,8 +3425,11 @@
       <c r="H8" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>263</v>
       </c>
@@ -3379,8 +3454,11 @@
       <c r="H9" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I9" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>265</v>
       </c>
@@ -3405,8 +3483,11 @@
       <c r="H10" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I10" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>268</v>
       </c>
@@ -3431,8 +3512,11 @@
       <c r="H11" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I11" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>271</v>
       </c>
@@ -3457,8 +3541,11 @@
       <c r="H12" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>274</v>
       </c>
@@ -3483,8 +3570,11 @@
       <c r="H13" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>277</v>
       </c>
@@ -3510,7 +3600,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>280</v>
       </c>
@@ -3536,7 +3626,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>283</v>
       </c>
@@ -4160,7 +4250,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4630,7 +4720,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -4687,8 +4777,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4726,7 +4816,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>158</v>
       </c>
@@ -4749,10 +4839,10 @@
         <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>159</v>
       </c>
@@ -4775,10 +4865,10 @@
         <v>197</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>161</v>
       </c>
@@ -4801,10 +4891,10 @@
         <v>197</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
@@ -4827,10 +4917,10 @@
         <v>197</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>165</v>
       </c>
@@ -4853,10 +4943,10 @@
         <v>197</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -4879,10 +4969,10 @@
         <v>198</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>166</v>
       </c>
@@ -4905,10 +4995,10 @@
         <v>197</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>168</v>
       </c>
@@ -4931,10 +5021,10 @@
         <v>197</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>169</v>
       </c>
@@ -4957,10 +5047,10 @@
         <v>197</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
@@ -4983,7 +5073,7 @@
         <v>197</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5100,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
@@ -5033,10 +5123,10 @@
         <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>174</v>
       </c>
@@ -5059,7 +5149,7 @@
         <v>197</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5084,8 +5174,8 @@
       <c r="G15" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>195</v>
+      <c r="H15" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5112,7 +5202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>177</v>
       </c>
@@ -5134,11 +5224,11 @@
       <c r="G17" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H17" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>178</v>
       </c>
@@ -5161,10 +5251,10 @@
         <v>197</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>179</v>
       </c>
@@ -5186,11 +5276,11 @@
       <c r="G19" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H19" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>180</v>
       </c>
@@ -5213,10 +5303,10 @@
         <v>197</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>181</v>
       </c>
@@ -5239,10 +5329,10 @@
         <v>197</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>183</v>
       </c>
@@ -5265,10 +5355,10 @@
         <v>197</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>184</v>
       </c>
@@ -5291,10 +5381,10 @@
         <v>197</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>185</v>
       </c>
@@ -5317,10 +5407,10 @@
         <v>197</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>186</v>
       </c>
@@ -5343,10 +5433,10 @@
         <v>197</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>187</v>
       </c>
@@ -5369,10 +5459,10 @@
         <v>197</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>188</v>
       </c>
@@ -5395,10 +5485,10 @@
         <v>197</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>189</v>
       </c>
@@ -5421,10 +5511,10 @@
         <v>197</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -5481,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5520,7 +5610,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>191</v>
@@ -5529,24 +5619,20 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>191</v>
@@ -5555,24 +5641,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>247</v>
-      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>191</v>
@@ -5581,24 +5663,20 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>191</v>
@@ -5607,30 +5685,1350 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>352</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="H18" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F5">
-    <sortCondition ref="A2:A5"/>
+  <sortState ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId1"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F17" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="1813" sheetId="6" r:id="rId6"/>
     <sheet name="1814" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId8"/>
+    <sheet name="Feuil2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1808-08-to-1808-12'!$A$1:$H$33</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="386">
   <si>
     <t>date</t>
   </si>
@@ -1121,7 +1122,70 @@
     <t>1813-03-05</t>
   </si>
   <si>
-    <t>reprise au 6 mars</t>
+    <t>1813-04-03</t>
+  </si>
+  <si>
+    <t>1813-04-08</t>
+  </si>
+  <si>
+    <t>seulement École des femmes</t>
+  </si>
+  <si>
+    <t>seulement premier paragraphe sur École des femmes</t>
+  </si>
+  <si>
+    <t>1813-04-10</t>
+  </si>
+  <si>
+    <t>1813-04-15</t>
+  </si>
+  <si>
+    <t>seulement Mercure galant (essentiellement sur l'Impromptu de Versailles)</t>
+  </si>
+  <si>
+    <t>1813-04-19</t>
+  </si>
+  <si>
+    <t>1813-05-05</t>
+  </si>
+  <si>
+    <t>1813-05-13</t>
+  </si>
+  <si>
+    <t>1813-05-18</t>
+  </si>
+  <si>
+    <t>seulement passages sur Dom Garcie de Navarre</t>
+  </si>
+  <si>
+    <t>1813-05-22</t>
+  </si>
+  <si>
+    <t>revoir 1813-06-04 sur diction dans Horace</t>
+  </si>
+  <si>
+    <t>1813-06-06 sur le vendredi au Théâtre-Français</t>
+  </si>
+  <si>
+    <t>1813-06-08</t>
+  </si>
+  <si>
+    <t>1813-06-19</t>
+  </si>
+  <si>
+    <t>1813-06-20 sur l'édition Petitot</t>
+  </si>
+  <si>
+    <t>1813-06-24</t>
+  </si>
+  <si>
+    <t>1813-06-25 sur l'édition Petitot</t>
+  </si>
+  <si>
+    <t>1813-06-29</t>
+  </si>
+  <si>
+    <t>1813-06-30 sur l'édition Petitot</t>
   </si>
 </sst>
 </file>
@@ -4777,7 +4841,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -5571,10 +5635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5894,9 +5958,9 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>191</v>
@@ -5905,24 +5969,20 @@
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>191</v>
@@ -5931,24 +5991,20 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>247</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>191</v>
@@ -5957,24 +6013,20 @@
         <v>6</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>347</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>191</v>
@@ -5983,155 +6035,323 @@
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>347</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -7020,15 +7240,25 @@
       <c r="G120" s="5"/>
       <c r="H120" s="6"/>
     </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:H19">
-    <sortCondition ref="A2:A19"/>
+  <sortState ref="A2:H32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F17" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId1"/>
+    <hyperlink ref="F29" r:id="rId2"/>
+    <hyperlink ref="F30" r:id="rId3"/>
+    <hyperlink ref="F31" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7230,4 +7460,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="388">
   <si>
     <t>date</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>http://gallica.bnf.fr/ark:/12148/bpt6k4196194</t>
   </si>
   <si>
-    <t>1810-11-11</t>
-  </si>
-  <si>
     <t>slt sur Ecole des maris dernier § p.2-3</t>
   </si>
   <si>
@@ -1065,12 +1062,6 @@
     <t>fait EB</t>
   </si>
   <si>
-    <t>pb chargement charlotte (demande_2016-04-18)</t>
-  </si>
-  <si>
-    <t>pb chargement camille (demande_2016-04-18)</t>
-  </si>
-  <si>
     <t>non attribué (demande_2016-04-18)</t>
   </si>
   <si>
@@ -1186,6 +1177,21 @@
   </si>
   <si>
     <t>1813-06-30 sur l'édition Petitot</t>
+  </si>
+  <si>
+    <t>charlotte (demande_2016-04-18, rechargé_2016-04-19)</t>
+  </si>
+  <si>
+    <t>camille (demande_2016-04-18, rechargé_2016-04-19)</t>
+  </si>
+  <si>
+    <t>1810-11-17</t>
+  </si>
+  <si>
+    <t>floria (demande_2016-04-18, rechargé_2016-04-19)</t>
+  </si>
+  <si>
+    <t>rechargé, demande_2016-04-18</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1678,7 @@
   <dimension ref="A1:H1048565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H32"/>
+      <selection sqref="A1:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2156,7 @@
         <v>197</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2176,7 +2182,7 @@
         <v>197</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2202,7 +2208,7 @@
         <v>197</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2228,7 +2234,7 @@
         <v>197</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2254,7 +2260,7 @@
         <v>197</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2280,7 +2286,7 @@
         <v>197</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2306,7 +2312,7 @@
         <v>197</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2332,7 +2338,7 @@
         <v>197</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2358,7 +2364,7 @@
         <v>197</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2384,7 +2390,7 @@
         <v>197</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2477,7 +2483,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A10" sqref="A10:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2694,7 +2700,7 @@
         <v>197</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2786,7 @@
         <v>197</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2812,7 @@
         <v>197</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2832,7 +2838,7 @@
         <v>197</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2940,7 +2946,7 @@
         <v>197</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -2990,7 +2996,7 @@
         <v>197</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3130,7 @@
         <v>197</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -3254,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3313,11 +3319,9 @@
         <v>197</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -3342,11 +3346,9 @@
         <v>197</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -3371,11 +3373,9 @@
         <v>198</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3400,11 +3400,9 @@
         <v>198</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3429,11 +3427,9 @@
         <v>197</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3458,11 +3454,9 @@
         <v>197</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -3487,11 +3481,9 @@
         <v>198</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3516,11 +3508,9 @@
         <v>197</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -3545,11 +3535,9 @@
         <v>197</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -3574,11 +3562,9 @@
         <v>197</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -3603,11 +3589,9 @@
         <v>197</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -3632,11 +3616,9 @@
         <v>197</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>345</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -3661,7 +3643,7 @@
         <v>197</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -3687,7 +3669,7 @@
         <v>197</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3713,7 +3695,7 @@
         <v>197</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3739,7 +3721,7 @@
         <v>197</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3765,7 +3747,7 @@
         <v>197</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3790,8 +3772,8 @@
       <c r="G19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>346</v>
+      <c r="H19" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3816,8 +3798,8 @@
       <c r="G20" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>346</v>
+      <c r="H20" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3842,8 +3824,8 @@
       <c r="G21" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>346</v>
+      <c r="H21" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3868,8 +3850,8 @@
       <c r="G22" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>346</v>
+      <c r="H22" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3894,8 +3876,8 @@
       <c r="G23" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>346</v>
+      <c r="H23" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3920,8 +3902,8 @@
       <c r="G24" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>346</v>
+      <c r="H24" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3946,8 +3928,8 @@
       <c r="G25" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>346</v>
+      <c r="H25" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3972,8 +3954,8 @@
       <c r="G26" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>346</v>
+      <c r="H26" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3998,8 +3980,8 @@
       <c r="G27" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>346</v>
+      <c r="H27" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4024,8 +4006,8 @@
       <c r="G28" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>346</v>
+      <c r="H28" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4050,8 +4032,8 @@
       <c r="G29" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>346</v>
+      <c r="H29" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4076,8 +4058,8 @@
       <c r="G30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>346</v>
+      <c r="H30" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4102,8 +4084,8 @@
       <c r="G31" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>346</v>
+      <c r="H31" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4128,8 +4110,8 @@
       <c r="G32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>346</v>
+      <c r="H32" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4154,112 +4136,112 @@
       <c r="G33" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>346</v>
+      <c r="H33" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="G34" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>346</v>
+      <c r="H34" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="G35" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>346</v>
+      <c r="H35" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="G36" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>346</v>
+      <c r="H36" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="G37" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>346</v>
+      <c r="H37" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4313,8 +4295,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4370,8 +4352,8 @@
       <c r="G2" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>346</v>
+      <c r="H2" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4396,8 +4378,8 @@
       <c r="G3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>346</v>
+      <c r="H3" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4422,8 +4404,8 @@
       <c r="G4" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>346</v>
+      <c r="H4" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4448,8 +4430,8 @@
       <c r="G5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>346</v>
+      <c r="H5" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4474,8 +4456,8 @@
       <c r="G6" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>346</v>
+      <c r="H6" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -4548,8 +4530,8 @@
       <c r="G9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>346</v>
+      <c r="H9" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4574,8 +4556,8 @@
       <c r="G10" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>346</v>
+      <c r="H10" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
@@ -4624,8 +4606,8 @@
       <c r="G12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>346</v>
+      <c r="H12" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4650,8 +4632,8 @@
       <c r="G13" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>346</v>
+      <c r="H13" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,7 +4659,7 @@
         <v>197</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4703,7 +4685,7 @@
         <v>197</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4729,7 +4711,7 @@
         <v>197</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4755,7 +4737,7 @@
         <v>197</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4781,7 +4763,7 @@
         <v>198</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4796,7 +4778,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +4823,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -4903,7 +4885,7 @@
         <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4929,7 +4911,7 @@
         <v>197</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4955,7 +4937,7 @@
         <v>197</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4981,7 +4963,7 @@
         <v>197</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5007,7 +4989,7 @@
         <v>197</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5033,7 +5015,7 @@
         <v>198</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5059,7 +5041,7 @@
         <v>197</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5085,7 +5067,7 @@
         <v>197</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5111,7 +5093,7 @@
         <v>197</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5137,7 +5119,7 @@
         <v>197</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5187,7 +5169,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5213,7 +5195,7 @@
         <v>197</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5239,7 +5221,7 @@
         <v>197</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -5289,7 +5271,7 @@
         <v>197</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5315,7 +5297,7 @@
         <v>197</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5341,7 +5323,7 @@
         <v>197</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5367,7 +5349,7 @@
         <v>197</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5393,7 +5375,7 @@
         <v>197</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5419,7 +5401,7 @@
         <v>197</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5445,7 +5427,7 @@
         <v>197</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5471,7 +5453,7 @@
         <v>197</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5497,7 +5479,7 @@
         <v>197</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5523,7 +5505,7 @@
         <v>197</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5549,7 +5531,7 @@
         <v>197</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5575,7 +5557,7 @@
         <v>197</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -5637,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5674,7 +5656,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>191</v>
@@ -5696,7 +5678,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>191</v>
@@ -5718,7 +5700,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>191</v>
@@ -5740,7 +5722,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>191</v>
@@ -5749,7 +5731,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -5762,7 +5744,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>191</v>
@@ -5784,7 +5766,7 @@
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>191</v>
@@ -5793,7 +5775,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
@@ -5806,7 +5788,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>191</v>
@@ -5828,7 +5810,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>191</v>
@@ -5837,7 +5819,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
@@ -5850,7 +5832,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>191</v>
@@ -5859,7 +5841,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
@@ -5872,7 +5854,7 @@
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>191</v>
@@ -5894,7 +5876,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>191</v>
@@ -5916,7 +5898,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>191</v>
@@ -5938,7 +5920,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>191</v>
@@ -5960,7 +5942,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>191</v>
@@ -5982,7 +5964,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>191</v>
@@ -5991,7 +5973,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -6004,7 +5986,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>191</v>
@@ -6026,7 +6008,7 @@
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>191</v>
@@ -6035,7 +6017,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
@@ -6048,7 +6030,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>191</v>
@@ -6070,7 +6052,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>191</v>
@@ -6113,12 +6095,12 @@
         <v>198</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>191</v>
@@ -6140,7 +6122,7 @@
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>191</v>
@@ -6149,7 +6131,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>13</v>
@@ -6162,7 +6144,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>191</v>
@@ -6184,7 +6166,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>191</v>
@@ -6206,7 +6188,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>191</v>
@@ -6215,7 +6197,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>13</v>
@@ -6228,7 +6210,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>191</v>
@@ -6250,7 +6232,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>191</v>
@@ -6293,7 +6275,7 @@
         <v>198</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -6319,7 +6301,7 @@
         <v>198</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -6345,7 +6327,7 @@
         <v>198</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -7374,7 +7356,7 @@
         <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -7382,7 +7364,7 @@
         <v>1810</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7390,7 +7372,7 @@
         <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7406,7 +7388,7 @@
         <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -7474,27 +7456,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elodiebenard\ownCloud\moliere\jdd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="18240" windowHeight="7248" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="402">
   <si>
     <t>date</t>
   </si>
@@ -444,9 +449,6 @@
     <t>1811-03-23</t>
   </si>
   <si>
-    <t>uniquement sur Grandmesnil p. 4</t>
-  </si>
-  <si>
     <t>1811-03-30</t>
   </si>
   <si>
@@ -1192,6 +1194,51 @@
   </si>
   <si>
     <t>rechargé, demande_2016-04-18</t>
+  </si>
+  <si>
+    <t>uniquement sur Grandmesnil p. 4 (et sur Mlle Darlaux?)</t>
+  </si>
+  <si>
+    <t>1811-07-04</t>
+  </si>
+  <si>
+    <t>seulement sur Femmes savantes §1-2</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4198560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui </t>
+  </si>
+  <si>
+    <t>1811-07-11</t>
+  </si>
+  <si>
+    <t>seulement sur Avare §1-2</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4198636</t>
+  </si>
+  <si>
+    <t>1811-08-20</t>
+  </si>
+  <si>
+    <t>seulement dernier p.4 sur Tartuffe</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419903f</t>
+  </si>
+  <si>
+    <t>seulement Misanthrope p.3-4 (sauf dernier §)</t>
+  </si>
+  <si>
+    <t>seulement Ecole des femmes p.4</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k419921c</t>
+  </si>
+  <si>
+    <t>1811-09-07</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1280,12 +1327,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1318,6 +1407,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1430,7 +1532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,7 +1567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1681,18 +1783,18 @@
       <selection sqref="A1:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -1707,18 +1809,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
@@ -1727,18 +1829,18 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>64</v>
@@ -1747,18 +1849,18 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>64</v>
@@ -1767,18 +1869,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>64</v>
@@ -1787,18 +1889,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>64</v>
@@ -1807,18 +1909,18 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
@@ -1827,18 +1929,18 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
@@ -1847,18 +1949,18 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>64</v>
@@ -1867,18 +1969,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
@@ -1887,18 +1989,18 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -1907,18 +2009,18 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>64</v>
@@ -1927,18 +2029,18 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>64</v>
@@ -1947,18 +2049,18 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>20</v>
@@ -1967,18 +2069,18 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>64</v>
@@ -1987,18 +2089,18 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>20</v>
@@ -2007,18 +2109,18 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>64</v>
@@ -2027,18 +2129,18 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>64</v>
@@ -2047,18 +2149,18 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -2067,18 +2169,18 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -2087,18 +2189,18 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>64</v>
@@ -2107,18 +2209,18 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>64</v>
@@ -2127,18 +2229,18 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
@@ -2153,18 +2255,18 @@
         <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
@@ -2179,18 +2281,18 @@
         <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
@@ -2205,18 +2307,18 @@
         <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
@@ -2231,18 +2333,18 @@
         <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>6</v>
@@ -2257,18 +2359,18 @@
         <v>91</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>6</v>
@@ -2283,18 +2385,18 @@
         <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>6</v>
@@ -2309,18 +2411,18 @@
         <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -2335,18 +2437,18 @@
         <v>99</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -2361,18 +2463,18 @@
         <v>102</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
@@ -2387,18 +2489,18 @@
         <v>103</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>20</v>
@@ -2408,40 +2510,40 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="1048555" spans="2:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1048555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048555" s="5"/>
     </row>
-    <row r="1048556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048556" s="5"/>
     </row>
-    <row r="1048557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048557" s="5"/>
     </row>
-    <row r="1048558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048558" s="5"/>
     </row>
-    <row r="1048559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048559" s="5"/>
     </row>
-    <row r="1048560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048560" s="5"/>
     </row>
-    <row r="1048561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048561" s="5"/>
     </row>
-    <row r="1048562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048562" s="5"/>
     </row>
-    <row r="1048563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048563" s="5"/>
     </row>
-    <row r="1048564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048564" s="5"/>
     </row>
-    <row r="1048565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1048565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1048565" s="5"/>
     </row>
   </sheetData>
@@ -2486,17 +2588,17 @@
       <selection activeCell="A10" sqref="A10:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -2511,18 +2613,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
@@ -2531,18 +2633,18 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>20</v>
@@ -2551,18 +2653,18 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>20</v>
@@ -2571,18 +2673,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>20</v>
@@ -2591,18 +2693,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
@@ -2611,18 +2713,18 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
@@ -2631,18 +2733,18 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>20</v>
@@ -2651,18 +2753,18 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -2671,18 +2773,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -2697,18 +2799,18 @@
         <v>123</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -2717,18 +2819,18 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -2737,18 +2839,18 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
@@ -2757,18 +2859,18 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
@@ -2783,18 +2885,18 @@
         <v>124</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -2809,18 +2911,18 @@
         <v>125</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -2835,18 +2937,18 @@
         <v>127</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -2855,18 +2957,18 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
@@ -2875,18 +2977,18 @@
       <c r="E18" s="13"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -2895,18 +2997,18 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -2917,18 +3019,18 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -2943,18 +3045,18 @@
         <v>128</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -2967,18 +3069,18 @@
         <v>129</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -2993,18 +3095,18 @@
         <v>130</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>20</v>
@@ -3015,18 +3117,18 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>20</v>
@@ -3035,18 +3137,18 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>20</v>
@@ -3057,18 +3159,18 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>20</v>
@@ -3079,18 +3181,18 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>20</v>
@@ -3101,24 +3203,24 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>79</v>
@@ -3127,18 +3229,18 @@
         <v>131</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>20</v>
@@ -3149,79 +3251,79 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="17"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="4:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="17"/>
     </row>
   </sheetData>
@@ -3260,22 +3362,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -3290,45 +3392,45 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -3340,157 +3442,157 @@
         <v>79</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -3502,182 +3604,182 @@
         <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="B16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -3689,47 +3791,47 @@
         <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>288</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -3741,333 +3843,333 @@
         <v>79</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F27" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -4079,47 +4181,47 @@
         <v>13</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="B33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
@@ -4131,117 +4233,117 @@
         <v>13</v>
       </c>
       <c r="F33" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>340</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4293,23 +4395,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -4324,44 +4426,44 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -4373,21 +4475,21 @@
         <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -4399,21 +4501,21 @@
         <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -4425,177 +4527,177 @@
         <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="B11" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>141</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>13</v>
@@ -4604,182 +4706,313 @@
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="I19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H22" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" t="s">
-        <v>341</v>
-      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H19">
@@ -4788,6 +5021,9 @@
         <filter val="oui"/>
       </filters>
     </filterColumn>
+    <sortState ref="A2:H22">
+      <sortCondition ref="A2:A22"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A2:H19">
     <sortCondition ref="A2:A19"/>
@@ -4799,10 +5035,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F14" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F19" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+    <hyperlink ref="F21" r:id="rId4"/>
+    <hyperlink ref="F17" r:id="rId5"/>
     <hyperlink ref="F2" r:id="rId6"/>
     <hyperlink ref="F3" r:id="rId7"/>
     <hyperlink ref="F4" r:id="rId8"/>
@@ -4811,7 +5047,7 @@
     <hyperlink ref="F9" r:id="rId11"/>
     <hyperlink ref="F10" r:id="rId12"/>
     <hyperlink ref="F13" r:id="rId13"/>
-    <hyperlink ref="F18" r:id="rId14"/>
+    <hyperlink ref="F22" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
@@ -4823,25 +5059,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="11.5703125" style="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="19"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="19"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>94</v>
@@ -4856,18 +5092,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -4879,279 +5115,279 @@
         <v>13</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="B4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="B5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>227</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="B11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>232</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -5163,123 +5399,123 @@
         <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="G14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="B15" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>202</v>
-      </c>
       <c r="G15" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>173</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="B18" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -5291,47 +5527,47 @@
         <v>13</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="B20" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -5343,47 +5579,47 @@
         <v>13</v>
       </c>
       <c r="F20" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="G21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="B22" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -5395,21 +5631,21 @@
         <v>13</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -5421,21 +5657,21 @@
         <v>13</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -5447,47 +5683,47 @@
         <v>13</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="G25" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="B26" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
@@ -5499,73 +5735,73 @@
         <v>13</v>
       </c>
       <c r="F26" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="G27" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="B28" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>245</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="11"/>
@@ -5623,17 +5859,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -5648,18 +5884,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -5672,16 +5908,16 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -5694,60 +5930,60 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -5760,38 +5996,38 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -5804,82 +6040,82 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -5892,104 +6128,104 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
@@ -6002,38 +6238,38 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
@@ -6046,16 +6282,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -6068,42 +6304,42 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
@@ -6116,38 +6352,38 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>6</v>
@@ -6160,16 +6396,16 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>6</v>
@@ -6182,38 +6418,38 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>6</v>
@@ -6226,16 +6462,16 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>6</v>
@@ -6248,42 +6484,42 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -6295,21 +6531,21 @@
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
@@ -6321,18 +6557,18 @@
         <v>13</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -6342,7 +6578,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6352,7 +6588,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6362,7 +6598,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -6372,7 +6608,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -6382,7 +6618,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6392,7 +6628,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -6402,7 +6638,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -6412,7 +6648,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -6422,7 +6658,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -6432,7 +6668,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6442,7 +6678,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -6452,7 +6688,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -6462,7 +6698,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -6472,7 +6708,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -6482,7 +6718,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -6492,7 +6728,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -6502,7 +6738,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -6512,7 +6748,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6522,7 +6758,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -6532,7 +6768,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -6542,7 +6778,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -6552,7 +6788,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6562,7 +6798,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -6572,7 +6808,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -6582,7 +6818,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -6592,7 +6828,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -6602,7 +6838,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -6612,7 +6848,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -6622,7 +6858,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -6632,7 +6868,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6642,7 +6878,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -6652,7 +6888,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -6662,7 +6898,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6672,7 +6908,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -6682,7 +6918,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6692,7 +6928,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6702,7 +6938,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6712,7 +6948,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6722,7 +6958,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6732,7 +6968,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6742,7 +6978,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6752,7 +6988,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6762,7 +6998,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6772,7 +7008,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6782,7 +7018,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6792,7 +7028,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -6802,7 +7038,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -6812,7 +7048,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -6822,7 +7058,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -6832,7 +7068,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -6842,7 +7078,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -6852,7 +7088,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -6862,7 +7098,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -6872,7 +7108,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -6882,7 +7118,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -6892,7 +7128,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -6902,7 +7138,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -6912,7 +7148,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -6922,7 +7158,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -6932,7 +7168,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -6942,7 +7178,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -6952,7 +7188,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -6962,7 +7198,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -6972,7 +7208,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -6982,7 +7218,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -6992,7 +7228,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -7002,7 +7238,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -7012,7 +7248,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -7022,7 +7258,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -7032,7 +7268,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -7042,7 +7278,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -7052,7 +7288,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -7062,7 +7298,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -7072,7 +7308,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -7082,7 +7318,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -7092,7 +7328,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -7102,7 +7338,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -7112,7 +7348,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -7122,7 +7358,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -7132,7 +7368,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -7142,7 +7378,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -7152,7 +7388,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -7162,7 +7398,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -7172,7 +7408,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -7182,7 +7418,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -7192,7 +7428,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -7202,7 +7438,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -7212,7 +7448,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -7222,7 +7458,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -7254,14 +7490,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>94</v>
@@ -7276,13 +7512,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7291,10 +7527,10 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7303,10 +7539,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7315,10 +7551,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7327,7 +7563,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -7343,57 +7579,57 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1810</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -7415,7 +7651,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
@@ -7423,7 +7659,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
@@ -7431,7 +7667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1818</v>
       </c>
@@ -7452,31 +7688,31 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18240" windowHeight="7245" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1808-08-to-1808-12" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="429">
   <si>
     <t>date</t>
   </si>
@@ -1239,6 +1239,87 @@
   </si>
   <si>
     <t>1811-09-07</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420225g</t>
+  </si>
+  <si>
+    <t>1812-07-07</t>
+  </si>
+  <si>
+    <t>en entier (sauf dernier § p.4)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420238z</t>
+  </si>
+  <si>
+    <t>seulement Amphitryon (p. 3-4)</t>
+  </si>
+  <si>
+    <t>1812-07-19</t>
+  </si>
+  <si>
+    <t>1812-08-04</t>
+  </si>
+  <si>
+    <t>seulement Amphitryon p.4</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4202544</t>
+  </si>
+  <si>
+    <t>1812-08-06</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420256w</t>
+  </si>
+  <si>
+    <t>seulement Ecole des femmes</t>
+  </si>
+  <si>
+    <t>1812-08-08</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420258n</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>sur le Philinte de Fabre p. 2</t>
+  </si>
+  <si>
+    <t>1812-08-13</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4202633</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420265v</t>
+  </si>
+  <si>
+    <t>1812-08-15</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4202756</t>
+  </si>
+  <si>
+    <t>1812-08-25</t>
+  </si>
+  <si>
+    <t>seulement Le Tartuffe</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420279q</t>
+  </si>
+  <si>
+    <t>seulement les §1-2 p. 1 (sur Tartuffe)</t>
+  </si>
+  <si>
+    <t>1812-08-29</t>
+  </si>
+  <si>
+    <t>reprise septembre</t>
   </si>
 </sst>
 </file>
@@ -4397,7 +4478,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -5057,10 +5138,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5796,17 +5877,208 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="11"/>
+        <v>404</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>402</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H29">

--- a/jdd/journal-empire_1808-1814.xlsx
+++ b/jdd/journal-empire_1808-1814.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="453">
   <si>
     <t>date</t>
   </si>
@@ -1319,7 +1319,79 @@
     <t>1812-08-29</t>
   </si>
   <si>
-    <t>reprise septembre</t>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4202845</t>
+  </si>
+  <si>
+    <t>1812-09-03</t>
+  </si>
+  <si>
+    <t>en entier (sauf 2 premiers §)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420294h</t>
+  </si>
+  <si>
+    <t>sur Tartuffe 2 premiers § p. 3</t>
+  </si>
+  <si>
+    <t>1812-09-13</t>
+  </si>
+  <si>
+    <t>Sur Tartuffe 3 derniers §</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4203218</t>
+  </si>
+  <si>
+    <t>1812-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sur Tartuffe 2 premiers § </t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k420331m</t>
+  </si>
+  <si>
+    <t>1812-10-20</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4203388</t>
+  </si>
+  <si>
+    <t>1812-10-27</t>
+  </si>
+  <si>
+    <t>sur Femmes savantes (sauf les 3 dernières phrases sur Les Deux Frères)</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4203566</t>
+  </si>
+  <si>
+    <t>sur Misanthrope (en entier sauf 2 derniers §)</t>
+  </si>
+  <si>
+    <t>1812-11-14</t>
+  </si>
+  <si>
+    <t>1812-12-05</t>
+  </si>
+  <si>
+    <t>oui?</t>
+  </si>
+  <si>
+    <t>sur Philinte de Fabre d'Eglantine</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4203778</t>
+  </si>
+  <si>
+    <t>http://gallica.bnf.fr/ark:/12148/bpt6k4204041</t>
+  </si>
+  <si>
+    <t>1812-12-31</t>
+  </si>
+  <si>
+    <t>sur Festin de Pierre et Pourceaugnac</t>
   </si>
 </sst>
 </file>
@@ -5138,10 +5210,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,9 +6147,164 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
